--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-901760.3326373986</v>
+        <v>-905900.0390513557</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12806291.29011719</v>
+        <v>12803341.3931651</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>207.8734880299151</v>
+        <v>279.3520259551935</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226486</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968129</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>145.6238767107353</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>254.1645274325037</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.24531548703978</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>248.939790491273</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615282</v>
+        <v>95.29905430887342</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>189.9243222039804</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>9.14137609272735</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.29097896497228</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>174.1132968821533</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8735598974589</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>77.54670537282392</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>7.623400421726245</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>146.22808089798</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>11.177937907243</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>22.29968782771329</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>224.5060116922535</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>72.41807127591039</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>104.1049590050351</v>
+        <v>55.67052047890265</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799142</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838901</v>
+        <v>24.17382596574988</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828913</v>
+        <v>52.06849973565001</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431746</v>
+        <v>70.57601873167833</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459986</v>
+        <v>55.72314698196074</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643959</v>
+        <v>41.29686219380046</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193187</v>
+        <v>41.22330424667958</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908597</v>
+        <v>42.97275566644684</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614781</v>
+        <v>53.79159358883898</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805015</v>
+        <v>41.14384575541102</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922208</v>
+        <v>18.98356133658295</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.325522173678</v>
+        <v>9.88205970103887</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920531</v>
+        <v>88.00800320656619</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1211.283959888005</v>
+        <v>1674.667592105526</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.283959888005</v>
+        <v>1281.492090608456</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.283959888005</v>
+        <v>1281.492090608456</v>
       </c>
       <c r="E2" t="n">
-        <v>808.7004350045499</v>
+        <v>878.9085657250005</v>
       </c>
       <c r="F2" t="n">
-        <v>391.8059965345277</v>
+        <v>462.0141272549782</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L2" t="n">
-        <v>402.4780154222169</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>858.7445930764383</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.5558767139</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606229</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.269414678801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.269414678801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W2" t="n">
-        <v>2008.269414678801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.269414678801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Y2" t="n">
-        <v>1611.778705599402</v>
+        <v>2075.162337816922</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737777</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284343</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475502</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475502</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303161</v>
+        <v>987.9600536479805</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313254</v>
+        <v>1501.562732257669</v>
       </c>
       <c r="O3" t="n">
-        <v>2120.099597904235</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737751</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737751</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.87392956865307</v>
+        <v>686.218423406473</v>
       </c>
       <c r="C4" t="n">
-        <v>73.87392956865307</v>
+        <v>516.0133054724622</v>
       </c>
       <c r="D4" t="n">
-        <v>73.87392956865307</v>
+        <v>516.0133054724622</v>
       </c>
       <c r="E4" t="n">
-        <v>73.87392956865307</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865307</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865307</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865307</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865307</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>506.4075462870908</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>220.9687545289917</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>73.87392956865307</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>73.87392956865307</v>
+        <v>686.218423406473</v>
       </c>
       <c r="X4" t="n">
-        <v>73.87392956865307</v>
+        <v>686.218423406473</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.87392956865307</v>
+        <v>686.218423406473</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1669.311879757299</v>
+        <v>857.3114874350574</v>
       </c>
       <c r="C5" t="n">
-        <v>1276.13637826023</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="D5" t="n">
-        <v>1276.13637826023</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="E5" t="n">
-        <v>873.5528533767741</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222169</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>402.4780154222169</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354898</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572952</v>
+        <v>1450.277176783645</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.74991746528</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023272</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023272</v>
+        <v>1595.909005810938</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023272</v>
+        <v>1253.802196514456</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.790056023272</v>
+        <v>1253.802196514456</v>
       </c>
       <c r="X5" t="n">
-        <v>1747.337450956329</v>
+        <v>1253.802196514456</v>
       </c>
       <c r="Y5" t="n">
-        <v>1747.337450956329</v>
+        <v>857.3114874350574</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021456</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622378</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837181</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946059</v>
+        <v>275.44958816289</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777377</v>
+        <v>275.44958816289</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475502</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475502</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653883</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653883</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784301</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675997</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431069</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>567.8919135440158</v>
+        <v>710.6044948895571</v>
       </c>
       <c r="C7" t="n">
-        <v>397.686795610005</v>
+        <v>540.3993769555464</v>
       </c>
       <c r="D7" t="n">
-        <v>397.686795610005</v>
+        <v>384.7662638580611</v>
       </c>
       <c r="E7" t="n">
-        <v>242.1279834692075</v>
+        <v>229.2074517172636</v>
       </c>
       <c r="F7" t="n">
-        <v>242.1279834692075</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865307</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865307</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>753.0999322353171</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>753.0999322353171</v>
+        <v>933.7165560729138</v>
       </c>
       <c r="W7" t="n">
-        <v>753.0999322353171</v>
+        <v>933.7165560729138</v>
       </c>
       <c r="X7" t="n">
-        <v>753.0999322353171</v>
+        <v>933.7165560729138</v>
       </c>
       <c r="Y7" t="n">
-        <v>753.0999322353171</v>
+        <v>710.6044948895571</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>600.8019744073591</v>
+        <v>1438.683309919575</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6264729102897</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4838,16 +4838,16 @@
         <v>2199.134950018231</v>
       </c>
       <c r="V8" t="n">
-        <v>1857.028140721749</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W8" t="n">
-        <v>1486.029105690037</v>
+        <v>1828.135914986518</v>
       </c>
       <c r="X8" t="n">
-        <v>1096.576500623094</v>
+        <v>1438.683309919575</v>
       </c>
       <c r="Y8" t="n">
-        <v>700.0857915436948</v>
+        <v>1438.683309919575</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>952.5501211703722</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.8329221200289</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="C10" t="n">
-        <v>527.8329221200289</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D10" t="n">
-        <v>527.8329221200289</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>372.2741099792314</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>372.2741099792314</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>713.0409408113302</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>543.7129140311276</v>
       </c>
       <c r="W10" t="n">
-        <v>713.0409408113302</v>
+        <v>543.7129140311276</v>
       </c>
       <c r="X10" t="n">
-        <v>713.0409408113302</v>
+        <v>543.7129140311276</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.0409408113302</v>
+        <v>543.7129140311276</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1702.435468430418</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E11" t="n">
         <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>722.313225118575</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3098.255980739386</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>3098.255980739386</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2914.299526320179</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.282650873813</v>
+        <v>2643.988992169891</v>
       </c>
       <c r="W11" t="n">
-        <v>2679.577518653632</v>
+        <v>2344.786232284372</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.921188732882</v>
+        <v>2027.129902363623</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732882</v>
+        <v>1702.435468430418</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>314.8481789384691</v>
+        <v>448.7226219791492</v>
       </c>
       <c r="C13" t="n">
-        <v>303.5573325675166</v>
+        <v>350.3137791913323</v>
       </c>
       <c r="D13" t="n">
-        <v>303.5573325675166</v>
+        <v>350.3137791913323</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675166</v>
+        <v>327.7888419916216</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>242.2591823507884</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1332.809865128935</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915624</v>
+        <v>924.984278484048</v>
       </c>
       <c r="W13" t="n">
-        <v>741.8597555915624</v>
+        <v>713.4501515614195</v>
       </c>
       <c r="X13" t="n">
-        <v>579.5757085207393</v>
+        <v>713.4501515614195</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.2599224835765</v>
+        <v>562.1343655242566</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1434.218555009979</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="C14" t="n">
-        <v>1112.839328659103</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D14" t="n">
-        <v>799.1944750219646</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>799.1944750219646</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>454.0963116981363</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y14" t="n">
-        <v>1762.917025575182</v>
+        <v>1558.431545602419</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.4958349961666</v>
+        <v>473.0040912619326</v>
       </c>
       <c r="C16" t="n">
-        <v>389.0869922083497</v>
+        <v>473.0040912619326</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083497</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083497</v>
+        <v>305.4047163160376</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.68534223645</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034681</v>
+        <v>793.9644698127913</v>
       </c>
       <c r="W16" t="n">
-        <v>743.9681452808396</v>
+        <v>793.9644698127913</v>
       </c>
       <c r="X16" t="n">
-        <v>638.8116210333294</v>
+        <v>737.7316208442028</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.4958349961666</v>
+        <v>586.41583480704</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099319</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5546,7 +5546,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803431</v>
@@ -5750,19 +5750,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343045</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5972,25 +5972,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6145,25 +6145,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6233,13 +6233,13 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485126</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377455</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508977</v>
@@ -6263,10 +6263,10 @@
         <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6303,16 +6303,16 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6361,31 +6361,31 @@
         <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192013</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225741</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6470,16 +6470,16 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>591.6304904949648</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1219.402140121646</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1875.180111332205</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6598,37 +6598,37 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057092</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835509</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150704</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043032</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174554</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042573</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076166</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076166</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390749</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>1213.592416776441</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1869.370387987</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965136</v>
+        <v>365.671367692972</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918673</v>
+        <v>309.3853606404863</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237465</v>
+        <v>267.6713584245263</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123135</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546509</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834609</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.73045008374203</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076166</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>395.3961945636321</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898374</v>
+        <v>581.6877729018961</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770973</v>
+        <v>876.5295275080882</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649524</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.785962625019</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439553</v>
+        <v>835.7257283273684</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000951</v>
+        <v>666.3144371400713</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124426</v>
+        <v>546.1532258045795</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584504</v>
+        <v>436.9602755027481</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803437</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184705</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567345</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,19 +7433,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>270.9691711012525</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750523</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133163</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
         <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7649,16 +7649,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,10 +7682,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>610.6003825615873</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>390.0367011443666</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837495</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886043</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>435.3486841458213</v>
       </c>
       <c r="P3" t="n">
-        <v>142.3190939440774</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>423.8876955505282</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>408.9176699138061</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>93.76504805760452</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>465.388239943997</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886043</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,16 +8453,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>616.3484143223238</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>644.8631884980639</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,13 +8535,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>581.2880043687418</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>98.45345285401153</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8769,7 +8769,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8784,7 +8784,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,7 +9012,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9021,7 +9021,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9489,7 +9489,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9963,7 +9963,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10194,22 +10194,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796058</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>324.3235533562102</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271596</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>136.3731801151487</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>86.14670669190181</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>149.9826513886835</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>86.24681645269575</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>60.62522379694434</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901692</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>100.9054741672975</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>265.5347442862345</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>56.55624759507967</v>
+        <v>104.9906861212121</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1118308.358575445</v>
+        <v>1116804.489541045</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1118308.358575445</v>
+        <v>1116804.489541045</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1128481.315711588</v>
+        <v>1128481.315711589</v>
       </c>
     </row>
     <row r="9">
@@ -26317,16 +26317,16 @@
         <v>198365.3959026924</v>
       </c>
       <c r="D2" t="n">
+        <v>198365.3959026924</v>
+      </c>
+      <c r="E2" t="n">
+        <v>175294.9257668406</v>
+      </c>
+      <c r="F2" t="n">
+        <v>175294.9257668407</v>
+      </c>
+      <c r="G2" t="n">
         <v>198365.3959026925</v>
-      </c>
-      <c r="E2" t="n">
-        <v>175294.9257668408</v>
-      </c>
-      <c r="F2" t="n">
-        <v>175294.9257668408</v>
-      </c>
-      <c r="G2" t="n">
-        <v>198365.3959026924</v>
       </c>
       <c r="H2" t="n">
         <v>198365.3959026925</v>
@@ -26338,22 +26338,22 @@
         <v>198365.3959026924</v>
       </c>
       <c r="K2" t="n">
+        <v>198365.3959026923</v>
+      </c>
+      <c r="L2" t="n">
+        <v>198365.3959026928</v>
+      </c>
+      <c r="M2" t="n">
         <v>198365.3959026924</v>
       </c>
-      <c r="L2" t="n">
-        <v>198365.3959026923</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>198365.3959026924</v>
+      </c>
+      <c r="O2" t="n">
         <v>198365.3959026925</v>
       </c>
-      <c r="N2" t="n">
-        <v>198365.3959026925</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>198365.3959026924</v>
-      </c>
-      <c r="P2" t="n">
-        <v>198365.3959026925</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728544</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26427,7 +26427,7 @@
         <v>138605.9604845213</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761036</v>
@@ -26445,7 +26445,7 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
@@ -26454,7 +26454,7 @@
         <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
         <v>186364.8769761036</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272078.4645781284</v>
+        <v>-267426.2449569535</v>
       </c>
       <c r="C6" t="n">
-        <v>-89873.51628627245</v>
+        <v>-93567.58792289831</v>
       </c>
       <c r="D6" t="n">
-        <v>-97618.09698989274</v>
+        <v>-105354.3862132845</v>
       </c>
       <c r="E6" t="n">
-        <v>-128619.6158915656</v>
+        <v>-128829.3474382552</v>
       </c>
       <c r="F6" t="n">
-        <v>-16497.05441752117</v>
+        <v>-16706.78596421076</v>
       </c>
       <c r="G6" t="n">
-        <v>-93594.57592561276</v>
+        <v>-93594.57592561273</v>
       </c>
       <c r="H6" t="n">
-        <v>-46169.25038893076</v>
+        <v>-46169.25038893064</v>
       </c>
       <c r="I6" t="n">
         <v>-46169.25038893084</v>
       </c>
       <c r="J6" t="n">
-        <v>-259211.1679862163</v>
+        <v>-252694.8828316431</v>
       </c>
       <c r="K6" t="n">
-        <v>-52409.01879171376</v>
+        <v>-52409.01879171382</v>
       </c>
       <c r="L6" t="n">
-        <v>-107591.6077263349</v>
+        <v>-111640.4449368068</v>
       </c>
       <c r="M6" t="n">
-        <v>-88370.07984855369</v>
+        <v>-89421.77485974188</v>
       </c>
       <c r="N6" t="n">
-        <v>-46169.2503889306</v>
+        <v>-46169.25038893078</v>
       </c>
       <c r="O6" t="n">
-        <v>-73936.94443170202</v>
+        <v>-73936.94443170185</v>
       </c>
       <c r="P6" t="n">
-        <v>-46169.25038893079</v>
+        <v>-46169.25038893078</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26713,13 +26713,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095208</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660681</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551357</v>
+        <v>17.58004954287439</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407234</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>201.1576399269617</v>
+        <v>129.6791020016833</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343466</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626774</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,10 +27552,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>117.6956750166487</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>26.3325706156304</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>319.2444827672431</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>140.3039559908257</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270138</v>
+        <v>23.56016543998078</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27828,10 +27828,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>92.66008163653765</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>254.1781756346567</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>298.1988192893106</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>215.1304495999454</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>6.697953464089977</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>185.7728463545601</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2979821082766</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28986,13 +28986,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,16 +29217,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>35.71049010668769</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634528545</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29305,16 +29305,16 @@
         <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="N26" t="n">
-        <v>30.27223765901124</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901186</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431648</v>
@@ -29542,19 +29542,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>30.27223765901266</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N29" t="n">
+      <c r="Q29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566739</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>81.10808140893363</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>94.97643844045524</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>106.8683420224729</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,40 +30378,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>35.71049010668918</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30642,7 +30642,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>28.01250026485259</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>28.012500264853</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30721,7 +30721,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30882,25 +30882,25 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>460.87533096386</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>240.9182098065825</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>342.6611252569324</v>
       </c>
       <c r="P3" t="n">
-        <v>55.23572912476277</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>274.162643952801</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>259.799178576022</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>3.704701200686284</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>373.001117894685</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>463.1002445918322</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>495.7446971602798</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>495.9158915145752</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>7.465299698097541</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35504,7 +35504,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,7 +35732,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184291</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934977</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,16 +36601,16 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039224</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751655996</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36838,19 +36838,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36914,22 +36914,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268755</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,7 +37078,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105785</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>267.8207684199928</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273753</v>
+        <v>75.16693519537665</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>231.9364313068983</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729929</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055085</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>280.016472815414</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>227.9553781604311</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>201.4959849287092</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>51.00106726098203</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37938,7 +37938,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398118</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317805</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38178,10 +38178,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
